--- a/DMS/Templates/Store_Export.xlsx
+++ b/DMS/Templates/Store_Export.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7D54C5-A807-4A4B-837F-984B83F38082}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2003D312-9537-4C74-86A0-186D711093C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Store" sheetId="1" r:id="rId1"/>
@@ -38,65 +38,124 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Cách thức xử lý với file import:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Yêu cầu nhập dữ liệu chính xác hết ở các dòng thì mới thực hiện import thành công, lỗi dòng nào thì hiển thị thông báo để sửa lỗi dòng đó
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Tỉnh/ TP</t>
+  </si>
+  <si>
+    <t>Quận/ huyện</t>
+  </si>
+  <si>
+    <t>Địa chỉ giao hàng</t>
+  </si>
+  <si>
+    <t>Giao hàng - Kinh độ</t>
+  </si>
+  <si>
+    <t>Giao hàng - Vĩ độ</t>
+  </si>
+  <si>
+    <t>Điện thoại</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Mã</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đơn vị quản lý * </t>
+  </si>
+  <si>
+    <t>Tư cách pháp nhân</t>
+  </si>
+  <si>
+    <t>Mã số thuế</t>
+  </si>
+  <si>
+    <t>Điện thoại liên hệ *</t>
+  </si>
+  <si>
+    <t>Phường/Xã</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Trạng thái *</t>
+  </si>
+  <si>
+    <t>Tên Quận/Huyện</t>
+  </si>
+  <si>
+    <t>Mã Quận/Huyện</t>
+  </si>
+  <si>
+    <t>Mã Tỉnh/Thành phố</t>
+  </si>
+  <si>
+    <t>Tên Tỉnh/Thành phố</t>
+  </si>
+  <si>
+    <t>Mã Phường/Xã</t>
+  </si>
+  <si>
+    <t>Tên Phường/Xã</t>
+  </si>
+  <si>
+    <t>Mã đại lý *</t>
+  </si>
+  <si>
+    <t>Tên đại lý *</t>
+  </si>
+  <si>
+    <t>Cấp đại lý *</t>
+  </si>
+  <si>
+    <t>Nhóm đại lý</t>
+  </si>
+  <si>
+    <t>Địa chỉ đại lý *</t>
+  </si>
+  <si>
+    <t>Tên chủ đại lý *</t>
+  </si>
+  <si>
+    <t>Đại lý cấp cha</t>
+  </si>
+  <si>
+    <t>Đại lý - Kinh độ</t>
+  </si>
+  <si>
+    <t>Đại lý - Vĩ độ</t>
+  </si>
+  <si>
+    <t>Cách thức xử lý với file import:
+- Yêu cầu nhập dữ liệu chính xác hết ở các dòng thì mới thực hiện import thành công, lỗi dòng nào thì hiển thị thông báo để sửa lỗi dòng đó
 - Sau khi đọc file, hệ thống sẽ ghi nhận lại tất cả các lỗi trên từng dòng, sau đó hiển thị ra màn hình thông báo lỗi cho khách hàng với format như sau:
 Dòng {số dòng} bị lỗi như sau:
 - {Hiển thị ra các thông báo như check bên dưới}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Các loại thông báo lỗi:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Mã cửa hàng: check trùng
+Các loại thông báo lỗi:
+1. Mã đại lý: check trùng
 - Trùng trong danh sách
 - Trùng với mã trong DB
 =&gt; Hiển thị thông báo "{Tên trường} + {Giá trị nhập} đã tồn tại."
 2. Check require với:
-- Mã cửa hàng
-- Tên cửa hàng
+- Mã đại lý
+- Tên đại lý
 - Đơn vị quản lý
-- Cấp cửa hàng
-- Địa chỉ cửa hàng
-- Cửa hàng - Kinh độ
-- Cửa hàng - Vĩ độ
-- Tên chủ cửa hàng
+- Cấp đại lý
+- Địa chỉ đại lý
+- Đại lý - Kinh độ
+- Đại lý - Vĩ độ
+- Tên chủ đại lý
 - Điện thoại liên hệ
 =&gt;  Hiển thị thông báo: "Vui lòng nhập + {Tên trường}"
 3. Giới hạn số ký tự nhập vào: 255 ký tự
@@ -106,106 +165,6 @@
 5. Giá trị Province - District - Ward không liên quan
 =&gt; Hiển thị thông báo "{District} không thuộc {Province}" hoặc "{Ward} không thuộc {District}"
 6. Import cho đến khi hết dòng có dữ liệu</t>
-    </r>
-  </si>
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Cửa hàng cấp cha</t>
-  </si>
-  <si>
-    <t>Nhóm cửa hàng</t>
-  </si>
-  <si>
-    <t>Tỉnh/ TP</t>
-  </si>
-  <si>
-    <t>Quận/ huyện</t>
-  </si>
-  <si>
-    <t>Cửa hàng - Kinh độ</t>
-  </si>
-  <si>
-    <t>Cửa hàng - vĩ độ</t>
-  </si>
-  <si>
-    <t>Địa chỉ giao hàng</t>
-  </si>
-  <si>
-    <t>Giao hàng - Kinh độ</t>
-  </si>
-  <si>
-    <t>Giao hàng - Vĩ độ</t>
-  </si>
-  <si>
-    <t>Điện thoại</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Mã</t>
-  </si>
-  <si>
-    <t>Tên</t>
-  </si>
-  <si>
-    <t>Mã cửa hàng *</t>
-  </si>
-  <si>
-    <t>Tên cửa hàng *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đơn vị quản lý * </t>
-  </si>
-  <si>
-    <t>Tư cách pháp nhân</t>
-  </si>
-  <si>
-    <t>Mã số thuế</t>
-  </si>
-  <si>
-    <t>Địa chỉ cửa hàng *</t>
-  </si>
-  <si>
-    <t>Tên chủ cửa hàng *</t>
-  </si>
-  <si>
-    <t>Điện thoại liên hệ *</t>
-  </si>
-  <si>
-    <t>Phường/Xã</t>
-  </si>
-  <si>
-    <t>Địa chỉ</t>
-  </si>
-  <si>
-    <t>Số điện thoại</t>
-  </si>
-  <si>
-    <t>Trạng thái *</t>
-  </si>
-  <si>
-    <t>Tên Quận/Huyện</t>
-  </si>
-  <si>
-    <t>Mã Quận/Huyện</t>
-  </si>
-  <si>
-    <t>Mã Tỉnh/Thành phố</t>
-  </si>
-  <si>
-    <t>Tên Tỉnh/Thành phố</t>
-  </si>
-  <si>
-    <t>Mã Phường/Xã</t>
-  </si>
-  <si>
-    <t>Tên Phường/Xã</t>
-  </si>
-  <si>
-    <t>Cấp cửa hàng *</t>
   </si>
 </sst>
 </file>
@@ -632,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -660,73 +619,73 @@
   <sheetData>
     <row r="1" spans="1:23" s="5" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -758,10 +717,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -806,16 +765,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -858,10 +817,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -903,10 +862,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -949,10 +908,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -995,13 +954,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1045,16 +1004,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1066,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1080,7 +1039,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>

--- a/DMS/Templates/Store_Export.xlsx
+++ b/DMS/Templates/Store_Export.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2003D312-9537-4C74-86A0-186D711093C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2C2F43-B5B7-425A-A66C-234FB5C4CE03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Store" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>STT</t>
   </si>
@@ -165,6 +165,12 @@
 5. Giá trị Province - District - Ward không liên quan
 =&gt; Hiển thị thông báo "{District} không thuộc {Province}" hoặc "{Ward} không thuộc {District}"
 6. Import cho đến khi hết dòng có dữ liệu</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>Vui lòng insert các bản ghi vào trên dòng này</t>
   </si>
 </sst>
 </file>
@@ -256,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -275,6 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,35 +596,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="27" style="3" customWidth="1"/>
     <col min="4" max="4" width="29" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="3" customWidth="1"/>
-    <col min="7" max="9" width="16.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="3" customWidth="1"/>
-    <col min="11" max="12" width="13.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="3" customWidth="1"/>
+    <col min="7" max="9" width="16.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="3" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" style="3" customWidth="1"/>
     <col min="13" max="13" width="16" style="3" customWidth="1"/>
-    <col min="14" max="18" width="13.6640625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="13.5546875" style="3" customWidth="1"/>
-    <col min="20" max="20" width="16.109375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="18.5546875" style="3" customWidth="1"/>
-    <col min="22" max="22" width="20.6640625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="19.44140625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="17.44140625" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="9.109375" style="3"/>
+    <col min="14" max="18" width="13.7109375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="19.42578125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="17.42578125" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="5" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -686,6 +693,14 @@
       </c>
       <c r="W1" s="6" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -707,15 +722,15 @@
       <selection activeCell="A2" sqref="A2:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" customWidth="1"/>
-    <col min="4" max="4" width="42.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -723,22 +738,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
@@ -755,15 +770,15 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="41.88671875" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -777,22 +792,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
@@ -809,13 +824,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -823,22 +838,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
@@ -854,13 +869,13 @@
       <selection activeCell="A2" sqref="A2:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="46.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -868,22 +883,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
@@ -899,14 +914,14 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="47.88671875" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
@@ -914,22 +929,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
@@ -945,14 +960,14 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -963,22 +978,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
@@ -994,15 +1009,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="36.88671875" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1025,19 +1040,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" customWidth="1"/>
-    <col min="10" max="10" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>33</v>
       </c>
@@ -1050,7 +1065,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -1061,7 +1076,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1072,7 +1087,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1083,7 +1098,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1094,7 +1109,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1105,7 +1120,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1116,7 +1131,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1127,7 +1142,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1138,7 +1153,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1149,7 +1164,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1160,7 +1175,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1171,7 +1186,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1182,7 +1197,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1193,7 +1208,7 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1204,7 +1219,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1215,7 +1230,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1226,7 +1241,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1237,7 +1252,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1248,7 +1263,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1259,7 +1274,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1270,7 +1285,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1281,7 +1296,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1292,7 +1307,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1303,7 +1318,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1314,7 +1329,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1325,7 +1340,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1336,7 +1351,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1347,7 +1362,7 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>

--- a/DMS/Templates/Store_Export.xlsx
+++ b/DMS/Templates/Store_Export.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2C2F43-B5B7-425A-A66C-234FB5C4CE03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB14950-601B-496F-BB4F-64416DEB92CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <sheet name="Quy tac import" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Store!$D$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Store!$E$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>STT</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>Tên Phường/Xã</t>
-  </si>
-  <si>
-    <t>Mã đại lý *</t>
   </si>
   <si>
     <t>Tên đại lý *</t>
@@ -171,6 +168,12 @@
   </si>
   <si>
     <t>Vui lòng insert các bản ghi vào trên dòng này</t>
+  </si>
+  <si>
+    <t>Mã đại lý tự nhập</t>
+  </si>
+  <si>
+    <t>Mã đại lý tự sinh *</t>
   </si>
 </sst>
 </file>
@@ -278,10 +281,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,116 +599,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="3" customWidth="1"/>
-    <col min="7" max="9" width="16.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="3" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16" style="3" customWidth="1"/>
-    <col min="14" max="18" width="13.7109375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" style="3" customWidth="1"/>
-    <col min="23" max="23" width="19.42578125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="17.42578125" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="3" width="12.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="3" customWidth="1"/>
+    <col min="8" max="10" width="16.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="3" customWidth="1"/>
+    <col min="12" max="13" width="13.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="16" style="3" customWidth="1"/>
+    <col min="15" max="19" width="13.7109375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" style="3" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="17.42578125" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="6" t="s">
+      <c r="P1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="C2" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Hoạt động, Không hoạt động"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1053,325 +1060,325 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DMS/Templates/Store_Export.xlsx
+++ b/DMS/Templates/Store_Export.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB14950-601B-496F-BB4F-64416DEB92CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F36CF8-15FF-42EB-BB62-3D2C6C11977E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>STT</t>
   </si>
@@ -175,6 +175,9 @@
   <si>
     <t>Mã đại lý tự sinh *</t>
   </si>
+  <si>
+    <t>Trạng thái duyệt *</t>
+  </si>
 </sst>
 </file>
 
@@ -184,7 +187,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -192,7 +195,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -213,7 +216,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -599,35 +602,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
-    <col min="2" max="3" width="12.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="12.25" style="3" customWidth="1"/>
     <col min="4" max="4" width="27" style="3" customWidth="1"/>
     <col min="5" max="5" width="29" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="3" customWidth="1"/>
-    <col min="8" max="10" width="16.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="3" customWidth="1"/>
-    <col min="12" max="13" width="13.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="3" customWidth="1"/>
+    <col min="8" max="10" width="16.75" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="3" customWidth="1"/>
+    <col min="12" max="13" width="13.125" style="3" customWidth="1"/>
     <col min="14" max="14" width="16" style="3" customWidth="1"/>
-    <col min="15" max="19" width="13.7109375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="16.140625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" style="3" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="19.42578125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="17.42578125" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="3"/>
+    <col min="15" max="19" width="13.75" style="3" customWidth="1"/>
+    <col min="20" max="20" width="13.625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="16.125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="18.625" style="3" customWidth="1"/>
+    <col min="23" max="24" width="20.75" style="3" customWidth="1"/>
+    <col min="25" max="25" width="19.375" style="3" customWidth="1"/>
+    <col min="26" max="26" width="17.375" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -698,10 +701,13 @@
         <v>7</v>
       </c>
       <c r="X1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>33</v>
       </c>
@@ -712,7 +718,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Hoạt động, Không hoạt động"</formula1>
     </dataValidation>
   </dataValidations>
@@ -729,15 +735,15 @@
       <selection activeCell="A2" sqref="A2:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="30.75" customWidth="1"/>
+    <col min="3" max="3" width="27.875" customWidth="1"/>
+    <col min="4" max="4" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -745,22 +751,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
@@ -777,15 +783,15 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="30.25" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+    <col min="4" max="4" width="41.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -799,22 +805,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
@@ -831,13 +837,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -845,22 +851,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
@@ -876,13 +882,13 @@
       <selection activeCell="A2" sqref="A2:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="46.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="46.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -890,22 +896,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
@@ -921,14 +927,14 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="47.875" customWidth="1"/>
+    <col min="3" max="3" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
@@ -936,22 +942,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
@@ -967,14 +973,14 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -985,22 +991,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
@@ -1016,15 +1022,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="36.875" customWidth="1"/>
+    <col min="3" max="3" width="25.875" customWidth="1"/>
+    <col min="4" max="4" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1047,19 +1053,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="9" max="9" width="20.625" customWidth="1"/>
+    <col min="10" max="10" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>32</v>
       </c>
@@ -1072,7 +1078,7 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -1083,7 +1089,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1094,7 +1100,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1105,7 +1111,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1116,7 +1122,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1127,7 +1133,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1138,7 +1144,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1149,7 +1155,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1160,7 +1166,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1171,7 +1177,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1182,7 +1188,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1193,7 +1199,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1204,7 +1210,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1215,7 +1221,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1226,7 +1232,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1237,7 +1243,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1248,7 +1254,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1259,7 +1265,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1270,7 +1276,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1281,7 +1287,7 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1292,7 +1298,7 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1303,7 +1309,7 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1314,7 +1320,7 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1325,7 +1331,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1336,7 +1342,7 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -1347,7 +1353,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -1358,7 +1364,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -1369,7 +1375,7 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>

--- a/DMS/Templates/Store_Export.xlsx
+++ b/DMS/Templates/Store_Export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F36CF8-15FF-42EB-BB62-3D2C6C11977E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80E2156-3173-4D5C-A458-D6450B6B35EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -605,7 +605,7 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -717,9 +717,12 @@
       <c r="C2" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Hoạt động, Không hoạt động"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X1048576" xr:uid="{1046D601-9FB5-4FC2-A75C-3D043CCA5800}">
+      <formula1>"Dự thảo, Chính thức"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
